--- a/Configuration/test_report_TxBW.xlsx
+++ b/Configuration/test_report_TxBW.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test_script\FS400_Final_Test_Desk1\Configuration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jiawen_zhou\FS400_Final_test\FS400_Final_Test_Desk1\Configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84CCA9E-45B3-4EF4-AA16-8A8F54D9FB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27840" yWindow="960" windowWidth="21750" windowHeight="13680"/>
+    <workbookView xWindow="-21135" yWindow="540" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Result" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -24,6 +25,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>SN</t>
   </si>
@@ -183,13 +185,21 @@
   </si>
   <si>
     <t>amp_Imbalance</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Res_TxMPDX</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Res_TxMPDY</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -900,7 +910,21 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1406,24 +1430,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="15.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" style="2" customWidth="1"/>
     <col min="7" max="7" width="9" style="2"/>
-    <col min="9" max="9" width="10.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1433,7 +1457,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -1443,7 +1467,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1453,7 +1477,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1463,7 +1487,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
@@ -1473,12 +1497,12 @@
       </c>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="str">
-        <f>IF(SUM(H8:H32)=21,"Pass","Fail")</f>
+        <f>IF(SUM(H8:H34)=23,"Pass","Fail")</f>
         <v>Fail</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1486,7 +1510,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
@@ -1509,7 +1533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
@@ -1535,7 +1559,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
@@ -1561,7 +1585,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
@@ -1587,7 +1611,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>16</v>
       </c>
@@ -1615,7 +1639,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>17</v>
       </c>
@@ -1639,7 +1663,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>18</v>
       </c>
@@ -1665,7 +1689,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>19</v>
       </c>
@@ -1691,7 +1715,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>20</v>
       </c>
@@ -1717,7 +1741,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>21</v>
       </c>
@@ -1745,7 +1769,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>22</v>
       </c>
@@ -1769,7 +1793,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>23</v>
       </c>
@@ -1795,7 +1819,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>24</v>
       </c>
@@ -1821,7 +1845,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>25</v>
       </c>
@@ -1847,7 +1871,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>26</v>
       </c>
@@ -1875,7 +1899,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>27</v>
       </c>
@@ -1899,7 +1923,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>28</v>
       </c>
@@ -1925,7 +1949,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>29</v>
       </c>
@@ -1951,7 +1975,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>30</v>
       </c>
@@ -1977,7 +2001,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>31</v>
       </c>
@@ -2005,7 +2029,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>32</v>
       </c>
@@ -2022,14 +2046,14 @@
         <v>9</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" ref="H27:H32" si="17">IF(I27="PASS",1,0)</f>
+        <f t="shared" ref="H27:H34" si="17">IF(I27="PASS",1,0)</f>
         <v>0</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>40</v>
       </c>
@@ -2037,7 +2061,7 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="str">
-        <f t="shared" ref="E28:E32" si="18">IF(COUNTA(B28:D28),B28,"NA")</f>
+        <f t="shared" ref="E28:E34" si="18">IF(COUNTA(B28:D28),B28,"NA")</f>
         <v>NA</v>
       </c>
       <c r="F28" s="1">
@@ -2055,7 +2079,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>41</v>
       </c>
@@ -2081,7 +2105,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>42</v>
       </c>
@@ -2107,7 +2131,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>43</v>
       </c>
@@ -2133,7 +2157,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>44</v>
       </c>
@@ -2162,118 +2186,178 @@
         <v>Fail</v>
       </c>
     </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>NA</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G33" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="1" t="str">
+        <f>IF(AND(E33&gt;=F33,E33&lt;G33,NOT( E33 ="NA")),"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>NA</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G34" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="1" t="str">
+        <f>IF(AND(E34&gt;=F34,E34&lt;G34,NOT( E34 ="NA")),"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="B6">
-    <cfRule type="containsText" dxfId="27" priority="51" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="29" priority="53" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",B6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="52" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="28" priority="54" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:I10 I12:I15 I17:I20 I23:I25">
-    <cfRule type="containsText" dxfId="25" priority="49" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="27" priority="51" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",I9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="50" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="26" priority="52" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",I9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="containsText" dxfId="23" priority="37" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="25" priority="39" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",I22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="38" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="24" priority="40" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",I22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="containsText" dxfId="21" priority="31" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="23" priority="33" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",I27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="32" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="22" priority="34" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",I27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="containsText" dxfId="19" priority="25" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="21" priority="27" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",I11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="26" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="20" priority="28" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",I11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:G11">
-    <cfRule type="containsText" dxfId="17" priority="23" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="19" priority="25" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",E11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="24" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="18" priority="26" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",E11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:G16">
-    <cfRule type="containsText" dxfId="15" priority="19" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="17" priority="21" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",E16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="20" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="16" priority="22" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",E16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:G21">
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",E21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",E21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:G26">
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",E26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",E26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",I16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",I16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",I21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",I21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",I26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",I26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:I32">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",I28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",I28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",I8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",I8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33:I34">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="FAIL">
-      <formula>NOT(ISERROR(SEARCH("FAIL",I8)))</formula>
+      <formula>NOT(ISERROR(SEARCH("FAIL",I33)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="PASS">
-      <formula>NOT(ISERROR(SEARCH("PASS",I8)))</formula>
+      <formula>NOT(ISERROR(SEARCH("PASS",I33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Configuration/test_report_TxBW.xlsx
+++ b/Configuration/test_report_TxBW.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test_script\FS400_Final_Test_Desk1\Configuration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jiawen_zhou\FS400_Final_test\FS400_Final_Test_Desk1\Configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E08FB2-191B-49D2-A0AF-E3BDD2149D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27840" yWindow="960" windowWidth="21750" windowHeight="13680"/>
+    <workbookView xWindow="-25830" yWindow="1560" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Result" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -24,6 +25,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>SN</t>
   </si>
@@ -183,13 +185,21 @@
   </si>
   <si>
     <t>amp_Imbalance</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Res_TxMPDX</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Res_TxMPDY</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -819,7 +829,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -855,6 +865,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1406,24 +1419,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="15.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" style="2" customWidth="1"/>
     <col min="7" max="7" width="9" style="2"/>
-    <col min="9" max="9" width="10.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1433,7 +1446,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -1443,7 +1456,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1453,7 +1466,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1463,7 +1476,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
@@ -1473,7 +1486,7 @@
       </c>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1486,7 +1499,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
@@ -1509,7 +1522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
@@ -1535,7 +1548,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
@@ -1561,7 +1574,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
@@ -1587,7 +1600,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>16</v>
       </c>
@@ -1615,7 +1628,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>17</v>
       </c>
@@ -1639,7 +1652,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>18</v>
       </c>
@@ -1665,7 +1678,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>19</v>
       </c>
@@ -1691,7 +1704,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>20</v>
       </c>
@@ -1717,7 +1730,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>21</v>
       </c>
@@ -1745,7 +1758,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>22</v>
       </c>
@@ -1769,7 +1782,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>23</v>
       </c>
@@ -1795,7 +1808,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>24</v>
       </c>
@@ -1821,7 +1834,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>25</v>
       </c>
@@ -1847,7 +1860,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>26</v>
       </c>
@@ -1875,7 +1888,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>27</v>
       </c>
@@ -1899,7 +1912,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>28</v>
       </c>
@@ -1925,7 +1938,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>29</v>
       </c>
@@ -1951,7 +1964,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>30</v>
       </c>
@@ -1977,7 +1990,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>31</v>
       </c>
@@ -2005,7 +2018,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>32</v>
       </c>
@@ -2029,7 +2042,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>40</v>
       </c>
@@ -2055,7 +2068,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>41</v>
       </c>
@@ -2081,7 +2094,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>42</v>
       </c>
@@ -2107,7 +2120,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>43</v>
       </c>
@@ -2133,7 +2146,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>44</v>
       </c>
@@ -2161,6 +2174,32 @@
         <f t="shared" si="19"/>
         <v>Fail</v>
       </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/Configuration/test_report_TxBW.xlsx
+++ b/Configuration/test_report_TxBW.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jiawen_zhou\FS400_Final_test\FS400_Final_Test_Desk1\Configuration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\PycharmProjects\FS400_Final_Test_Desk1\Configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84CCA9E-45B3-4EF4-AA16-8A8F54D9FB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21135" yWindow="540" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21135" yWindow="540" windowWidth="21600" windowHeight="11235"/>
   </bookViews>
   <sheets>
     <sheet name="Result" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -199,7 +198,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -910,21 +909,7 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="28">
     <dxf>
       <fill>
         <patternFill>
@@ -1430,24 +1415,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="2" customWidth="1"/>
     <col min="7" max="7" width="9" style="2"/>
-    <col min="9" max="9" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1457,7 +1442,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -1467,7 +1452,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1477,7 +1462,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1487,7 +1472,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
@@ -1497,12 +1482,12 @@
       </c>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="str">
-        <f>IF(SUM(H8:H34)=23,"Pass","Fail")</f>
+        <f>IF(SUM(H8:H33)=23,"Pass","Fail")</f>
         <v>Fail</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1510,7 +1495,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
@@ -1533,7 +1518,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
@@ -1559,7 +1544,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
@@ -1585,7 +1570,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
@@ -1611,7 +1596,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>16</v>
       </c>
@@ -1639,7 +1624,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>17</v>
       </c>
@@ -1663,7 +1648,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>18</v>
       </c>
@@ -1689,7 +1674,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>19</v>
       </c>
@@ -1715,7 +1700,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>20</v>
       </c>
@@ -1741,7 +1726,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>21</v>
       </c>
@@ -1769,7 +1754,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>22</v>
       </c>
@@ -1793,7 +1778,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>23</v>
       </c>
@@ -1819,7 +1804,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>24</v>
       </c>
@@ -1845,7 +1830,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>25</v>
       </c>
@@ -1871,7 +1856,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>26</v>
       </c>
@@ -1899,7 +1884,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>27</v>
       </c>
@@ -1923,7 +1908,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>28</v>
       </c>
@@ -1949,7 +1934,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>29</v>
       </c>
@@ -1975,7 +1960,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>30</v>
       </c>
@@ -2001,7 +1986,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>31</v>
       </c>
@@ -2029,7 +2014,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>32</v>
       </c>
@@ -2046,14 +2031,14 @@
         <v>9</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" ref="H27:H34" si="17">IF(I27="PASS",1,0)</f>
+        <f t="shared" ref="H27:H33" si="17">IF(I27="PASS",1,0)</f>
         <v>0</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>40</v>
       </c>
@@ -2061,7 +2046,7 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="str">
-        <f t="shared" ref="E28:E34" si="18">IF(COUNTA(B28:D28),B28,"NA")</f>
+        <f t="shared" ref="E28:E33" si="18">IF(COUNTA(B28:D28),B28,"NA")</f>
         <v>NA</v>
       </c>
       <c r="F28" s="1">
@@ -2075,11 +2060,11 @@
         <v>0</v>
       </c>
       <c r="I28" s="1" t="str">
-        <f t="shared" ref="I28:I32" si="19">IF(AND(E28&gt;F28,E28&lt;G28),"Pass","Fail")</f>
+        <f t="shared" ref="I28:I31" si="19">IF(AND(E28&gt;F28,E28&lt;G28),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>41</v>
       </c>
@@ -2105,7 +2090,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
         <v>42</v>
       </c>
@@ -2131,7 +2116,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>43</v>
       </c>
@@ -2157,38 +2142,35 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="1">
-        <f>MAX(B28:B31)-MIN(B28:B31)</f>
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1">
+      <c r="E32" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>NA</v>
       </c>
       <c r="F32" s="1">
-        <v>0</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="G32" s="1">
-        <v>6</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I32" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(AND(E32&gt;=F32,E32&lt;G32,NOT( E32 ="NA")),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2212,136 +2194,131 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="B34" s="1">
+        <f>MAX(B28:B31)-MIN(B28:B31)</f>
+        <v>0</v>
+      </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>NA</v>
+      <c r="E34" s="1">
+        <f>IF(COUNTA(B34:D34),B34,"NA")</f>
+        <v>0</v>
       </c>
       <c r="F34" s="1">
-        <v>2.9999999999999997E-4</v>
+        <v>0</v>
       </c>
       <c r="G34" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>6</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="17"/>
+        <f>IF(I34="PASS",1,0)</f>
         <v>0</v>
       </c>
       <c r="I34" s="1" t="str">
-        <f>IF(AND(E34&gt;=F34,E34&lt;G34,NOT( E34 ="NA")),"Pass","Fail")</f>
+        <f>IF(AND(E34&gt;F34,E34&lt;G34),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="B6">
-    <cfRule type="containsText" dxfId="29" priority="53" operator="containsText" text="FAIL">
+  <conditionalFormatting sqref="B6 I28:I31 I34">
+    <cfRule type="containsText" dxfId="27" priority="53" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",B6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="54" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="26" priority="54" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:I10 I12:I15 I17:I20 I23:I25">
-    <cfRule type="containsText" dxfId="27" priority="51" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="25" priority="51" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",I9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="52" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="24" priority="52" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",I9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="containsText" dxfId="25" priority="39" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="23" priority="39" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",I22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="40" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="22" priority="40" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",I22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="containsText" dxfId="23" priority="33" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="21" priority="33" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",I27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="34" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="20" priority="34" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",I27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="containsText" dxfId="21" priority="27" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="19" priority="27" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",I11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="28" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="18" priority="28" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",I11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:G11">
-    <cfRule type="containsText" dxfId="19" priority="25" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="17" priority="25" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",E11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="26" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="16" priority="26" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",E11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:G16">
-    <cfRule type="containsText" dxfId="17" priority="21" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="15" priority="21" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",E16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="22" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="14" priority="22" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",E16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:G21">
-    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",E21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",E21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:G26">
-    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",E26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",E26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",I16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",I16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",I21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",I21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",I26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",I26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I28:I32">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="FAIL">
-      <formula>NOT(ISERROR(SEARCH("FAIL",I28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="PASS">
-      <formula>NOT(ISERROR(SEARCH("PASS",I28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
@@ -2352,12 +2329,12 @@
       <formula>NOT(ISERROR(SEARCH("PASS",I8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33:I34">
+  <conditionalFormatting sqref="I32:I33">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="FAIL">
-      <formula>NOT(ISERROR(SEARCH("FAIL",I33)))</formula>
+      <formula>NOT(ISERROR(SEARCH("FAIL",I32)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="PASS">
-      <formula>NOT(ISERROR(SEARCH("PASS",I33)))</formula>
+      <formula>NOT(ISERROR(SEARCH("PASS",I32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Configuration/test_report_TxBW.xlsx
+++ b/Configuration/test_report_TxBW.xlsx
@@ -1418,8 +1418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1487,7 +1487,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="str">
-        <f>IF(SUM(H8:H33)=23,"Pass","Fail")</f>
+        <f>IF(SUM(H8:H34)=23,"Pass","Fail")</f>
         <v>Fail</v>
       </c>
       <c r="C6" s="4" t="s">
